--- a/output.xlsx
+++ b/output.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1_Ustawienia_aparatu" sheetId="1" r:id="rId1"/>
-    <sheet name="2a_BW_RT" sheetId="2" r:id="rId2"/>
-    <sheet name="2b_RG_RT" sheetId="3" r:id="rId3"/>
-    <sheet name="2c_GB_RT" sheetId="4" r:id="rId4"/>
-    <sheet name="2d_RB_RT" sheetId="5" r:id="rId5"/>
-    <sheet name="3_Winietowanie" sheetId="6" r:id="rId6"/>
-    <sheet name="4_Dystorsje" sheetId="7" r:id="rId7"/>
-    <sheet name="5_OCR" sheetId="8" r:id="rId8"/>
-    <sheet name="6_Szum_BW" sheetId="9" r:id="rId9"/>
-    <sheet name="7_Szum_RGB" sheetId="10" r:id="rId10"/>
-    <sheet name="8_Rozroznialnosc" sheetId="11" r:id="rId11"/>
-    <sheet name="Interpretacja" sheetId="12" r:id="rId12"/>
+    <sheet name="2a_BW_RT1" sheetId="2" r:id="rId2"/>
+    <sheet name="2a_BW_RT2" sheetId="3" r:id="rId3"/>
+    <sheet name="2a_BW_RT3" sheetId="4" r:id="rId4"/>
+    <sheet name="2a_BW_RT4" sheetId="5" r:id="rId5"/>
+    <sheet name="2a_BW_RT5" sheetId="6" r:id="rId6"/>
+    <sheet name="2b_RG_RT" sheetId="7" r:id="rId7"/>
+    <sheet name="2c_GB_RT" sheetId="8" r:id="rId8"/>
+    <sheet name="2d_RB_RT" sheetId="9" r:id="rId9"/>
+    <sheet name="3_Winietowanie" sheetId="10" r:id="rId10"/>
+    <sheet name="4_Dystorsje" sheetId="11" r:id="rId11"/>
+    <sheet name="5_OCR" sheetId="12" r:id="rId12"/>
+    <sheet name="6_Szum_BW" sheetId="13" r:id="rId13"/>
+    <sheet name="7_Szum_RGB" sheetId="14" r:id="rId14"/>
+    <sheet name="8_Rozroznialnosc" sheetId="15" r:id="rId15"/>
+    <sheet name="Interpretacja" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
   <si>
     <t>USTAWIENIA APARATU</t>
   </si>
   <si>
-    <t>Model aparatu</t>
-  </si>
-  <si>
     <t>Długość ogniskowa</t>
   </si>
   <si>
@@ -63,7 +64,16 @@
     <t>Jakość (kompresja)</t>
   </si>
   <si>
-    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY)</t>
+    <t>ILCE-6300</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>E PZ 16-50mm F3.5-5.6 OSS</t>
+  </si>
+  <si>
+    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY) 1</t>
   </si>
   <si>
     <t>TEST ROZDZIELCZOŚCI POZIOMEJ</t>
@@ -84,6 +94,21 @@
     <t>MTF [%]</t>
   </si>
   <si>
+    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY) 2</t>
+  </si>
+  <si>
+    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY) 3</t>
+  </si>
+  <si>
+    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY) 4</t>
+  </si>
+  <si>
+    <t>Blad</t>
+  </si>
+  <si>
+    <t>TEST ROZDZIELCZOŚCI (CZARNO-BIAŁY) 5</t>
+  </si>
+  <si>
     <t>TEST ROZDZIELCZOŚCI (CZERWONO-ZIELONY)</t>
   </si>
   <si>
@@ -105,6 +130,9 @@
     <t>Werdykt</t>
   </si>
   <si>
+    <t>Brak winietowania</t>
+  </si>
+  <si>
     <t>DYSTORSJE</t>
   </si>
   <si>
@@ -126,6 +154,12 @@
     <t>PD_V</t>
   </si>
   <si>
+    <t>Brak dystorsji</t>
+  </si>
+  <si>
+    <t>Błąd</t>
+  </si>
+  <si>
     <t>OCR</t>
   </si>
   <si>
@@ -217,6 +251,15 @@
   </si>
   <si>
     <t>Średnia10</t>
+  </si>
+  <si>
+    <t>Niedostateczna rozróżnialność</t>
+  </si>
+  <si>
+    <t>Zadowalająca rozróżnialność</t>
+  </si>
+  <si>
+    <t>Model sprzętu</t>
   </si>
 </sst>
 </file>
@@ -501,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -513,12 +556,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +597,15 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,9 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -566,6 +624,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,15 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,75 +932,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="14"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -955,519 +1091,1640 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A4" sqref="A4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>175.2</v>
+      </c>
+      <c r="B4">
+        <v>173.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>175.2</v>
+      </c>
+      <c r="B5">
+        <v>173.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>175.2</v>
+      </c>
+      <c r="B6">
+        <v>173.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E4">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>0.51</v>
+      </c>
+      <c r="K4">
+        <v>0.124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E5">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.183</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>0.51</v>
+      </c>
+      <c r="K5">
+        <v>0.124</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>0.51</v>
+      </c>
+      <c r="K6">
+        <v>0.124</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>174.65</v>
+      </c>
+      <c r="B4">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C4">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>174.65</v>
+      </c>
+      <c r="B5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C5">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>174.65</v>
+      </c>
+      <c r="B6">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C6">
+        <v>5.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CC6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:81">
-      <c r="A1" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="18"/>
+      <c r="A1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="21"/>
     </row>
     <row r="2" spans="1:81">
-      <c r="A2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="BV2" s="17"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="18"/>
+      <c r="A2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="21"/>
     </row>
     <row r="3" spans="1:81">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BU3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
+      <c r="A4">
+        <v>195.2</v>
+      </c>
+      <c r="B4">
+        <v>7.54</v>
+      </c>
+      <c r="C4">
+        <v>3.86</v>
+      </c>
+      <c r="D4">
+        <v>129.13</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>49.57</v>
+      </c>
+      <c r="G4">
+        <v>132.26</v>
+      </c>
+      <c r="H4">
+        <v>62.48</v>
+      </c>
+      <c r="I4">
+        <v>47.24</v>
+      </c>
+      <c r="J4">
+        <v>198.93</v>
+      </c>
+      <c r="K4">
+        <v>7.36</v>
+      </c>
+      <c r="L4">
+        <v>3.7</v>
+      </c>
+      <c r="M4">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="N4">
+        <v>60.53</v>
+      </c>
+      <c r="O4">
+        <v>38.47</v>
+      </c>
+      <c r="P4">
+        <v>101.97</v>
+      </c>
+      <c r="Q4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R4">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="S4">
+        <v>149.88999999999999</v>
+      </c>
+      <c r="T4">
+        <v>43.3</v>
+      </c>
+      <c r="U4">
+        <v>28.89</v>
+      </c>
+      <c r="V4">
+        <v>180.28</v>
+      </c>
+      <c r="W4">
+        <v>21.02</v>
+      </c>
+      <c r="X4">
+        <v>11.66</v>
+      </c>
+      <c r="Y4">
+        <v>110.8</v>
+      </c>
+      <c r="Z4">
+        <v>12.18</v>
+      </c>
+      <c r="AA4">
+        <v>10.99</v>
+      </c>
+      <c r="AB4">
+        <v>114</v>
+      </c>
+      <c r="AC4">
+        <v>3.01</v>
+      </c>
+      <c r="AD4">
+        <v>2.64</v>
+      </c>
+      <c r="AE4">
+        <v>174.34</v>
+      </c>
+      <c r="AF4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AG4">
+        <v>4.99</v>
+      </c>
+      <c r="AH4">
+        <v>159.68</v>
+      </c>
+      <c r="AI4">
+        <v>42.72</v>
+      </c>
+      <c r="AJ4">
+        <v>26.76</v>
+      </c>
+      <c r="AK4">
+        <v>49.81</v>
+      </c>
+      <c r="AL4">
+        <v>47.57</v>
+      </c>
+      <c r="AM4">
+        <v>95.51</v>
+      </c>
+      <c r="AN4">
+        <v>114.87</v>
+      </c>
+      <c r="AO4">
+        <v>51.15</v>
+      </c>
+      <c r="AP4">
+        <v>44.53</v>
+      </c>
+      <c r="AQ4">
+        <v>158.56</v>
+      </c>
+      <c r="AR4">
+        <v>25.86</v>
+      </c>
+      <c r="AS4">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AT4">
+        <v>116</v>
+      </c>
+      <c r="AU4">
+        <v>79.14</v>
+      </c>
+      <c r="AV4">
+        <v>68.23</v>
+      </c>
+      <c r="AW4">
+        <v>77.78</v>
+      </c>
+      <c r="AX4">
+        <v>4.25</v>
+      </c>
+      <c r="AY4">
+        <v>5.46</v>
+      </c>
+      <c r="AZ4">
+        <v>142.19</v>
+      </c>
+      <c r="BA4">
+        <v>3.73</v>
+      </c>
+      <c r="BB4">
+        <v>2.63</v>
+      </c>
+      <c r="BC4">
+        <v>127.24</v>
+      </c>
+      <c r="BD4">
+        <v>40.94</v>
+      </c>
+      <c r="BE4">
+        <v>32.18</v>
+      </c>
+      <c r="BF4">
+        <v>104.18</v>
+      </c>
+      <c r="BG4">
+        <v>19.3</v>
+      </c>
+      <c r="BH4">
+        <v>18.53</v>
+      </c>
+      <c r="BI4">
+        <v>158.19</v>
+      </c>
+      <c r="BJ4">
+        <v>11.71</v>
+      </c>
+      <c r="BK4">
+        <v>7.4</v>
+      </c>
+      <c r="BL4">
+        <v>162.69</v>
+      </c>
+      <c r="BM4">
+        <v>54.66</v>
+      </c>
+      <c r="BN4">
+        <v>33.6</v>
+      </c>
+      <c r="BO4">
+        <v>143.88</v>
+      </c>
+      <c r="BP4">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>13.84</v>
+      </c>
+      <c r="BR4">
+        <v>160.72</v>
+      </c>
+      <c r="BS4">
+        <v>5.99</v>
+      </c>
+      <c r="BT4">
+        <v>3.73</v>
+      </c>
+      <c r="BU4">
+        <v>165.53</v>
+      </c>
+      <c r="BV4">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="BW4">
+        <v>20.68</v>
+      </c>
+      <c r="BX4">
+        <v>174.01</v>
+      </c>
+      <c r="BY4">
+        <v>9.61</v>
+      </c>
+      <c r="BZ4">
+        <v>5.52</v>
+      </c>
+      <c r="CA4">
+        <v>150.97999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>6.35</v>
+      </c>
+      <c r="CC4">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
+      <c r="A5">
+        <v>195.2</v>
+      </c>
+      <c r="B5">
+        <v>7.54</v>
+      </c>
+      <c r="C5">
+        <v>3.86</v>
+      </c>
+      <c r="D5">
+        <v>129.13</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>49.57</v>
+      </c>
+      <c r="G5">
+        <v>132.26</v>
+      </c>
+      <c r="H5">
+        <v>62.48</v>
+      </c>
+      <c r="I5">
+        <v>47.24</v>
+      </c>
+      <c r="J5">
+        <v>198.93</v>
+      </c>
+      <c r="K5">
+        <v>7.36</v>
+      </c>
+      <c r="L5">
+        <v>3.7</v>
+      </c>
+      <c r="M5">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="N5">
+        <v>60.53</v>
+      </c>
+      <c r="O5">
+        <v>38.47</v>
+      </c>
+      <c r="P5">
+        <v>101.97</v>
+      </c>
+      <c r="Q5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R5">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="S5">
+        <v>149.88999999999999</v>
+      </c>
+      <c r="T5">
+        <v>43.3</v>
+      </c>
+      <c r="U5">
+        <v>28.89</v>
+      </c>
+      <c r="V5">
+        <v>180.28</v>
+      </c>
+      <c r="W5">
+        <v>21.02</v>
+      </c>
+      <c r="X5">
+        <v>11.66</v>
+      </c>
+      <c r="Y5">
+        <v>110.8</v>
+      </c>
+      <c r="Z5">
+        <v>12.18</v>
+      </c>
+      <c r="AA5">
+        <v>10.99</v>
+      </c>
+      <c r="AB5">
+        <v>114</v>
+      </c>
+      <c r="AC5">
+        <v>3.01</v>
+      </c>
+      <c r="AD5">
+        <v>2.64</v>
+      </c>
+      <c r="AE5">
+        <v>174.34</v>
+      </c>
+      <c r="AF5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AG5">
+        <v>4.99</v>
+      </c>
+      <c r="AH5">
+        <v>159.68</v>
+      </c>
+      <c r="AI5">
+        <v>42.72</v>
+      </c>
+      <c r="AJ5">
+        <v>26.76</v>
+      </c>
+      <c r="AK5">
+        <v>49.81</v>
+      </c>
+      <c r="AL5">
+        <v>47.57</v>
+      </c>
+      <c r="AM5">
+        <v>95.51</v>
+      </c>
+      <c r="AN5">
+        <v>114.87</v>
+      </c>
+      <c r="AO5">
+        <v>51.15</v>
+      </c>
+      <c r="AP5">
+        <v>44.53</v>
+      </c>
+      <c r="AQ5">
+        <v>158.56</v>
+      </c>
+      <c r="AR5">
+        <v>25.86</v>
+      </c>
+      <c r="AS5">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>116</v>
+      </c>
+      <c r="AU5">
+        <v>79.14</v>
+      </c>
+      <c r="AV5">
+        <v>68.23</v>
+      </c>
+      <c r="AW5">
+        <v>77.78</v>
+      </c>
+      <c r="AX5">
+        <v>4.25</v>
+      </c>
+      <c r="AY5">
+        <v>5.46</v>
+      </c>
+      <c r="AZ5">
+        <v>142.19</v>
+      </c>
+      <c r="BA5">
+        <v>3.73</v>
+      </c>
+      <c r="BB5">
+        <v>2.63</v>
+      </c>
+      <c r="BC5">
+        <v>127.24</v>
+      </c>
+      <c r="BD5">
+        <v>40.94</v>
+      </c>
+      <c r="BE5">
+        <v>32.18</v>
+      </c>
+      <c r="BF5">
+        <v>104.18</v>
+      </c>
+      <c r="BG5">
+        <v>19.3</v>
+      </c>
+      <c r="BH5">
+        <v>18.53</v>
+      </c>
+      <c r="BI5">
+        <v>158.19</v>
+      </c>
+      <c r="BJ5">
+        <v>11.71</v>
+      </c>
+      <c r="BK5">
+        <v>7.4</v>
+      </c>
+      <c r="BL5">
+        <v>162.69</v>
+      </c>
+      <c r="BM5">
+        <v>54.66</v>
+      </c>
+      <c r="BN5">
+        <v>33.6</v>
+      </c>
+      <c r="BO5">
+        <v>143.88</v>
+      </c>
+      <c r="BP5">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>13.84</v>
+      </c>
+      <c r="BR5">
+        <v>160.72</v>
+      </c>
+      <c r="BS5">
+        <v>5.99</v>
+      </c>
+      <c r="BT5">
+        <v>3.73</v>
+      </c>
+      <c r="BU5">
+        <v>165.53</v>
+      </c>
+      <c r="BV5">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="BW5">
+        <v>20.68</v>
+      </c>
+      <c r="BX5">
+        <v>174.01</v>
+      </c>
+      <c r="BY5">
+        <v>9.61</v>
+      </c>
+      <c r="BZ5">
+        <v>5.52</v>
+      </c>
+      <c r="CA5">
+        <v>150.97999999999999</v>
+      </c>
+      <c r="CB5">
+        <v>6.35</v>
+      </c>
+      <c r="CC5">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81">
+      <c r="A6">
+        <v>195.2</v>
+      </c>
+      <c r="B6">
+        <v>7.54</v>
+      </c>
+      <c r="C6">
+        <v>3.86</v>
+      </c>
+      <c r="D6">
+        <v>129.13</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>49.57</v>
+      </c>
+      <c r="G6">
+        <v>132.26</v>
+      </c>
+      <c r="H6">
+        <v>62.48</v>
+      </c>
+      <c r="I6">
+        <v>47.24</v>
+      </c>
+      <c r="J6">
+        <v>198.93</v>
+      </c>
+      <c r="K6">
+        <v>7.36</v>
+      </c>
+      <c r="L6">
+        <v>3.7</v>
+      </c>
+      <c r="M6">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="N6">
+        <v>60.53</v>
+      </c>
+      <c r="O6">
+        <v>38.47</v>
+      </c>
+      <c r="P6">
+        <v>101.97</v>
+      </c>
+      <c r="Q6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R6">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="S6">
+        <v>149.88999999999999</v>
+      </c>
+      <c r="T6">
+        <v>43.3</v>
+      </c>
+      <c r="U6">
+        <v>28.89</v>
+      </c>
+      <c r="V6">
+        <v>180.28</v>
+      </c>
+      <c r="W6">
+        <v>21.02</v>
+      </c>
+      <c r="X6">
+        <v>11.66</v>
+      </c>
+      <c r="Y6">
+        <v>110.8</v>
+      </c>
+      <c r="Z6">
+        <v>12.18</v>
+      </c>
+      <c r="AA6">
+        <v>10.99</v>
+      </c>
+      <c r="AB6">
+        <v>114</v>
+      </c>
+      <c r="AC6">
+        <v>3.01</v>
+      </c>
+      <c r="AD6">
+        <v>2.64</v>
+      </c>
+      <c r="AE6">
+        <v>174.34</v>
+      </c>
+      <c r="AF6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AG6">
+        <v>4.99</v>
+      </c>
+      <c r="AH6">
+        <v>159.68</v>
+      </c>
+      <c r="AI6">
+        <v>42.72</v>
+      </c>
+      <c r="AJ6">
+        <v>26.76</v>
+      </c>
+      <c r="AK6">
+        <v>49.81</v>
+      </c>
+      <c r="AL6">
+        <v>47.57</v>
+      </c>
+      <c r="AM6">
+        <v>95.51</v>
+      </c>
+      <c r="AN6">
+        <v>114.87</v>
+      </c>
+      <c r="AO6">
+        <v>51.15</v>
+      </c>
+      <c r="AP6">
+        <v>44.53</v>
+      </c>
+      <c r="AQ6">
+        <v>158.56</v>
+      </c>
+      <c r="AR6">
+        <v>25.86</v>
+      </c>
+      <c r="AS6">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>116</v>
+      </c>
+      <c r="AU6">
+        <v>79.14</v>
+      </c>
+      <c r="AV6">
+        <v>68.23</v>
+      </c>
+      <c r="AW6">
+        <v>77.78</v>
+      </c>
+      <c r="AX6">
+        <v>4.25</v>
+      </c>
+      <c r="AY6">
+        <v>5.46</v>
+      </c>
+      <c r="AZ6">
+        <v>142.19</v>
+      </c>
+      <c r="BA6">
+        <v>3.73</v>
+      </c>
+      <c r="BB6">
+        <v>2.63</v>
+      </c>
+      <c r="BC6">
+        <v>127.24</v>
+      </c>
+      <c r="BD6">
+        <v>40.94</v>
+      </c>
+      <c r="BE6">
+        <v>32.18</v>
+      </c>
+      <c r="BF6">
+        <v>104.18</v>
+      </c>
+      <c r="BG6">
+        <v>19.3</v>
+      </c>
+      <c r="BH6">
+        <v>18.53</v>
+      </c>
+      <c r="BI6">
+        <v>158.19</v>
+      </c>
+      <c r="BJ6">
+        <v>11.71</v>
+      </c>
+      <c r="BK6">
+        <v>7.4</v>
+      </c>
+      <c r="BL6">
+        <v>162.69</v>
+      </c>
+      <c r="BM6">
+        <v>54.66</v>
+      </c>
+      <c r="BN6">
+        <v>33.6</v>
+      </c>
+      <c r="BO6">
+        <v>143.88</v>
+      </c>
+      <c r="BP6">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="BQ6">
+        <v>13.84</v>
+      </c>
+      <c r="BR6">
+        <v>160.72</v>
+      </c>
+      <c r="BS6">
+        <v>5.99</v>
+      </c>
+      <c r="BT6">
+        <v>3.73</v>
+      </c>
+      <c r="BU6">
+        <v>165.53</v>
+      </c>
+      <c r="BV6">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="BW6">
+        <v>20.68</v>
+      </c>
+      <c r="BX6">
+        <v>174.01</v>
+      </c>
+      <c r="BY6">
+        <v>9.61</v>
+      </c>
+      <c r="BZ6">
+        <v>5.52</v>
+      </c>
+      <c r="CA6">
+        <v>150.97999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>6.35</v>
+      </c>
+      <c r="CC6">
+        <v>4.21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC1:BK1"/>
     <mergeCell ref="BL1:BT1"/>
     <mergeCell ref="BU1:CC1"/>
@@ -1484,166 +2741,230 @@
     <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
     <mergeCell ref="AT1:BB1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="12" width="16.21875" style="7" customWidth="1"/>
+    <col min="1" max="12" width="16.21875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="A2" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>25</v>
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="A4">
+        <v>135.26</v>
+      </c>
+      <c r="B4">
+        <v>105.65</v>
+      </c>
+      <c r="C4">
+        <v>81.52</v>
+      </c>
+      <c r="D4">
+        <v>60.46</v>
+      </c>
+      <c r="E4">
+        <v>57.55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>190.81</v>
+      </c>
+      <c r="H4">
+        <v>195.84</v>
+      </c>
+      <c r="I4">
+        <v>205.17</v>
+      </c>
+      <c r="J4">
+        <v>209.25</v>
+      </c>
+      <c r="K4">
+        <v>221.36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="A5">
+        <v>135.26</v>
+      </c>
+      <c r="B5">
+        <v>105.65</v>
+      </c>
+      <c r="C5">
+        <v>81.52</v>
+      </c>
+      <c r="D5">
+        <v>60.46</v>
+      </c>
+      <c r="E5">
+        <v>57.55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <v>190.81</v>
+      </c>
+      <c r="H5">
+        <v>195.84</v>
+      </c>
+      <c r="I5">
+        <v>205.17</v>
+      </c>
+      <c r="J5">
+        <v>209.25</v>
+      </c>
+      <c r="K5">
+        <v>221.36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="A6">
+        <v>135.26</v>
+      </c>
+      <c r="B6">
+        <v>105.65</v>
+      </c>
+      <c r="C6">
+        <v>81.52</v>
+      </c>
+      <c r="D6">
+        <v>60.46</v>
+      </c>
+      <c r="E6">
+        <v>57.55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>190.81</v>
+      </c>
+      <c r="H6">
+        <v>195.84</v>
+      </c>
+      <c r="I6">
+        <v>205.17</v>
+      </c>
+      <c r="J6">
+        <v>209.25</v>
+      </c>
+      <c r="K6">
+        <v>221.36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1655,7 +2976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1671,137 +2992,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="24" width="29.44140625" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="29.44140625" style="7"/>
+    <col min="1" max="30" width="29.44140625" style="8" customWidth="1"/>
+    <col min="31" max="16384" width="29.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
+      <c r="A1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:49">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="A4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="B4">
+        <v>938</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>41.46</v>
+      </c>
+      <c r="E4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F4">
+        <v>904</v>
+      </c>
+      <c r="G4">
+        <v>1833</v>
+      </c>
+      <c r="H4">
+        <v>76.48</v>
+      </c>
     </row>
     <row r="5" spans="1:49">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="A5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="B5">
+        <v>938</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>41.46</v>
+      </c>
+      <c r="E5">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F5">
+        <v>904</v>
+      </c>
+      <c r="G5">
+        <v>1833</v>
+      </c>
+      <c r="H5">
+        <v>76.48</v>
+      </c>
     </row>
     <row r="6" spans="1:49">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:49">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:49">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="A6">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="B6">
+        <v>938</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>41.46</v>
+      </c>
+      <c r="E6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F6">
+        <v>904</v>
+      </c>
+      <c r="G6">
+        <v>1833</v>
+      </c>
+      <c r="H6">
+        <v>76.48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1819,54 +3168,714 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="B4">
+        <v>1127</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>72.48</v>
+      </c>
+      <c r="E4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F4">
+        <v>510</v>
+      </c>
+      <c r="G4">
+        <v>1833</v>
+      </c>
+      <c r="H4">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="B5">
+        <v>1127</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>72.48</v>
+      </c>
+      <c r="E5">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F5">
+        <v>510</v>
+      </c>
+      <c r="G5">
+        <v>1833</v>
+      </c>
+      <c r="H5">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="B6">
+        <v>1127</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>72.48</v>
+      </c>
+      <c r="E6">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F6">
+        <v>510</v>
+      </c>
+      <c r="G6">
+        <v>1833</v>
+      </c>
+      <c r="H6">
+        <v>74.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="B4">
+        <v>793</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>70.61</v>
+      </c>
+      <c r="E4">
+        <v>1.121</v>
+      </c>
+      <c r="F4">
+        <v>327</v>
+      </c>
+      <c r="G4">
+        <v>1833</v>
+      </c>
+      <c r="H4">
+        <v>55.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="B5">
+        <v>793</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>70.61</v>
+      </c>
+      <c r="E5">
+        <v>1.121</v>
+      </c>
+      <c r="F5">
+        <v>327</v>
+      </c>
+      <c r="G5">
+        <v>1833</v>
+      </c>
+      <c r="H5">
+        <v>55.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="B6">
+        <v>793</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>70.61</v>
+      </c>
+      <c r="E6">
+        <v>1.121</v>
+      </c>
+      <c r="F6">
+        <v>327</v>
+      </c>
+      <c r="G6">
+        <v>1833</v>
+      </c>
+      <c r="H6">
+        <v>55.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1.992</v>
+      </c>
+      <c r="B4">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0.751</v>
+      </c>
+      <c r="F4">
+        <v>488</v>
+      </c>
+      <c r="G4">
+        <v>1833</v>
+      </c>
+      <c r="H4">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1.992</v>
+      </c>
+      <c r="B5">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>0.751</v>
+      </c>
+      <c r="F5">
+        <v>488</v>
+      </c>
+      <c r="G5">
+        <v>1833</v>
+      </c>
+      <c r="H5">
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1.992</v>
+      </c>
+      <c r="B6">
+        <v>276</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0.751</v>
+      </c>
+      <c r="F6">
+        <v>488</v>
+      </c>
+      <c r="G6">
+        <v>1833</v>
+      </c>
+      <c r="H6">
+        <v>85.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B4">
+        <v>1356</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>0.91</v>
+      </c>
+      <c r="E4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F4">
+        <v>1053</v>
+      </c>
+      <c r="G4">
+        <v>1833</v>
+      </c>
+      <c r="H4">
+        <v>85.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B5">
+        <v>1356</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>0.91</v>
+      </c>
+      <c r="E5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1053</v>
+      </c>
+      <c r="G5">
+        <v>1833</v>
+      </c>
+      <c r="H5">
+        <v>85.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B6">
+        <v>1356</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>0.91</v>
+      </c>
+      <c r="E6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1053</v>
+      </c>
+      <c r="G6">
+        <v>1833</v>
+      </c>
+      <c r="H6">
+        <v>85.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>183</v>
+      </c>
+      <c r="F4">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="B5">
+        <v>862</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E5">
+        <v>660</v>
+      </c>
+      <c r="F5">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="B6">
+        <v>862</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E6">
+        <v>660</v>
+      </c>
+      <c r="F6">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -1879,9 +3888,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F8"/>
@@ -1890,45 +3899,105 @@
   <sheetFormatPr defaultColWidth="42.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>183</v>
+      </c>
+      <c r="F4">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="B5">
+        <v>1184</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>762</v>
+      </c>
+      <c r="F5">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="B6">
+        <v>1184</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E6">
+        <v>762</v>
+      </c>
+      <c r="F6">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -1941,56 +4010,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>2750</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>183</v>
+      </c>
+      <c r="F4">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="B5">
+        <v>1228</v>
+      </c>
+      <c r="C5">
+        <v>2750</v>
+      </c>
+      <c r="D5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>850</v>
+      </c>
+      <c r="F5">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="B6">
+        <v>1228</v>
+      </c>
+      <c r="C6">
+        <v>2750</v>
+      </c>
+      <c r="D6">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E6">
+        <v>850</v>
+      </c>
+      <c r="F6">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -2001,215 +4130,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="31"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1_Ustawienia_aparatu" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="2a_BW_RT5" sheetId="6" r:id="rId6"/>
     <sheet name="2b_RG_RT" sheetId="7" r:id="rId7"/>
     <sheet name="2c_GB_RT" sheetId="8" r:id="rId8"/>
-    <sheet name="2d_RB_RT" sheetId="9" r:id="rId9"/>
-    <sheet name="3_Winietowanie" sheetId="10" r:id="rId10"/>
+    <sheet name="3_Winietowanie" sheetId="9" r:id="rId9"/>
+    <sheet name="2d_RB_RT" sheetId="10" r:id="rId10"/>
     <sheet name="4_Dystorsje" sheetId="11" r:id="rId11"/>
     <sheet name="5_OCR" sheetId="12" r:id="rId12"/>
     <sheet name="6_Szum_BW" sheetId="13" r:id="rId13"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="62">
   <si>
     <t>USTAWIENIA APARATU</t>
   </si>
@@ -106,21 +106,21 @@
     <t>TEST ROZDZIELCZOŚCI (ZIELONO-NIEBIESKI)</t>
   </si>
   <si>
+    <t>WINIETOWANIE</t>
+  </si>
+  <si>
+    <t>Średnia z rogów</t>
+  </si>
+  <si>
+    <t>Średnia z centrum</t>
+  </si>
+  <si>
+    <t>Werdykt</t>
+  </si>
+  <si>
     <t>TEST ROZDZIELCZOŚCI (CZERWONO-NIEBIESKI)</t>
   </si>
   <si>
-    <t>WINIETOWANIE</t>
-  </si>
-  <si>
-    <t>Średnia z rogów</t>
-  </si>
-  <si>
-    <t>Średnia z centrum</t>
-  </si>
-  <si>
-    <t>Werdykt</t>
-  </si>
-  <si>
     <t>DYSTORSJE</t>
   </si>
   <si>
@@ -199,40 +199,22 @@
     <t>ROZRÓŻNIALNOŚĆ</t>
   </si>
   <si>
-    <t>CZARNE</t>
-  </si>
-  <si>
-    <t>BIAŁE</t>
-  </si>
-  <si>
-    <t>Średnia nr1</t>
-  </si>
-  <si>
-    <t>Średnia nr2</t>
-  </si>
-  <si>
-    <t>Średnia3</t>
-  </si>
-  <si>
-    <t>Średnia4</t>
-  </si>
-  <si>
-    <t>Średnia5</t>
-  </si>
-  <si>
-    <t>Średnia6</t>
-  </si>
-  <si>
-    <t>Średnia7</t>
-  </si>
-  <si>
-    <t>Średnia8</t>
-  </si>
-  <si>
-    <t>Średnia9</t>
-  </si>
-  <si>
-    <t>Średnia10</t>
+    <t>CZARNE - RÓŻNICE</t>
+  </si>
+  <si>
+    <t>BIAŁE - RÓŻNICE</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
   </si>
 </sst>
 </file>
@@ -382,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -513,11 +495,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,11 +528,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,13 +554,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,9 +586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -595,28 +593,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,10 +630,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,66 +913,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -982,160 +986,92 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
       <c r="B5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
       <c r="B6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
       <c r="B7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
       <c r="B8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9"/>
       <c r="B10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
       <c r="B11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
       <c r="B12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
       <c r="B13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
       <c r="B14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
       <c r="B15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9"/>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9"/>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="2:2">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="2:2">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="2:2">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="2:2">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="2:2">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="2:2">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="2:2">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="2:2">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="2:2">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="2:2">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="2:2">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="2:2">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="2:2">
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2">
@@ -1151,40 +1087,61 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D23"/>
+      <selection activeCell="A4" sqref="A4:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="36.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1201,42 +1158,42 @@
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -1246,7 +1203,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -1255,7 +1212,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>35</v>
@@ -1264,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
@@ -1273,7 +1230,7 @@
         <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1293,18 +1250,18 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="40"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
@@ -1330,16 +1287,16 @@
   <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1371,242 +1328,242 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:81">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="29" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="46" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="30" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="48" t="s">
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="42" t="s">
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="43" t="s">
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="44" t="s">
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
-      <c r="CA1" s="22"/>
-      <c r="CB1" s="22"/>
-      <c r="CC1" s="23"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="25"/>
     </row>
     <row r="2" spans="1:81">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="40" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="40" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="41" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="40" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="39" t="s">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="40" t="s">
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="41" t="s">
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="39" t="s">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="40" t="s">
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="41" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="39" t="s">
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="40" t="s">
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="41" t="s">
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="39" t="s">
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="40" t="s">
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="41" t="s">
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="39" t="s">
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="40" t="s">
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="41" t="s">
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="39" t="s">
+      <c r="BV2" s="24"/>
+      <c r="BW2" s="25"/>
+      <c r="BX2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="40" t="s">
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="23"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="25"/>
     </row>
     <row r="3" spans="1:81">
       <c r="A3" s="4" t="s">
@@ -1855,6 +1812,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC1:BK1"/>
     <mergeCell ref="BL1:BT1"/>
     <mergeCell ref="BU1:CC1"/>
@@ -1871,26 +1848,6 @@
     <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
     <mergeCell ref="AT1:BB1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BU2:BW2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1899,304 +1856,98 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="12" width="16.21875" style="9" customWidth="1"/>
+    <col min="1" max="12" width="16.21875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="50" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="14" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>62</v>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2218,61 +1969,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="59" width="29.44140625" style="9" customWidth="1"/>
-    <col min="60" max="16384" width="29.44140625" style="9"/>
+    <col min="1" max="62" width="29.44140625" style="14" customWidth="1"/>
+    <col min="63" max="16384" width="29.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
@@ -2309,146 +2060,6 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-    </row>
-    <row r="5" spans="1:49">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:49">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:49">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:49">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:49">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:49">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:49">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:49">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:49">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:49">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:49">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:49">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2469,57 +2080,57 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H29"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2577,57 +2188,57 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H30"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2649,57 +2260,57 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I29"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2721,57 +2332,57 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I24"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2799,26 +2410,26 @@
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2852,35 +2463,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E26"/>
+      <selection activeCell="A4" sqref="A4:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2900,81 +2511,6 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="F5">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="F10">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="F12">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="F13">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="F14">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="F15">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18">
-        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -2989,61 +2525,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F26"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1_Ustawienia_aparatu" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="65">
   <si>
     <t>USTAWIENIA APARATU</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>4-5</t>
+  </si>
+  <si>
+    <t>Nazwa zdjęcia</t>
+  </si>
+  <si>
+    <t>Ocena</t>
+  </si>
+  <si>
+    <t>Zagięcie [%]</t>
   </si>
 </sst>
 </file>
@@ -479,17 +488,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -508,22 +506,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,11 +541,11 @@
     <xf numFmtId="49" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,14 +555,25 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,9 +608,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,15 +639,43 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -911,18 +948,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -936,9 +973,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -949,139 +987,144 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="8"/>
+      <c r="L3" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="8"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="8"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1096,26 +1139,26 @@
   <sheetFormatPr defaultColWidth="36.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1149,97 +1192,117 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
+      <c r="O3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1256,7 +1319,7 @@
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1287,16 +1350,16 @@
   <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1331,239 +1394,239 @@
       <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="31" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="32" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="26"/>
       <c r="AK1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="26"/>
       <c r="AT1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="26"/>
       <c r="BC1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="26"/>
       <c r="BL1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="26"/>
       <c r="BU1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="26"/>
     </row>
     <row r="2" spans="1:81">
       <c r="A2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
       <c r="S2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
       <c r="Y2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="26"/>
       <c r="AB2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
       <c r="AE2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="26"/>
       <c r="AH2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="26"/>
       <c r="AK2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="26"/>
       <c r="AN2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="26"/>
       <c r="AQ2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="26"/>
       <c r="AT2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="26"/>
       <c r="AW2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="26"/>
       <c r="AZ2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="26"/>
       <c r="BC2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="26"/>
       <c r="BF2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="26"/>
       <c r="BI2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="26"/>
       <c r="BL2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="26"/>
       <c r="BO2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="26"/>
       <c r="BR2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="26"/>
       <c r="BU2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="BV2" s="24"/>
-      <c r="BW2" s="25"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="26"/>
       <c r="BX2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="26"/>
       <c r="CA2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="26"/>
     </row>
     <row r="3" spans="1:81">
       <c r="A3" s="4" t="s">
@@ -1858,79 +1921,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="12" width="16.21875" style="14" customWidth="1"/>
+    <col min="1" max="12" width="16.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4"/>
@@ -1977,53 +2040,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="62" width="29.44140625" style="14" customWidth="1"/>
-    <col min="63" max="16384" width="29.44140625" style="14"/>
+    <col min="1" max="62" width="29.44140625" style="12" customWidth="1"/>
+    <col min="63" max="16384" width="29.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
       <c r="AE1" s="22"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
       <c r="AI1" s="22"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
       <c r="AU1" s="22"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
@@ -2086,54 +2149,54 @@
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2194,54 +2257,54 @@
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2266,54 +2329,54 @@
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2338,54 +2401,54 @@
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2410,26 +2473,26 @@
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2472,26 +2535,26 @@
   <sheetFormatPr defaultColWidth="42.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2534,16 +2597,16 @@
   <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
